--- a/Proyecto/Casos de estudio 1-4.xlsx
+++ b/Proyecto/Casos de estudio 1-4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="9975" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9975" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
   <si>
     <t>Media</t>
   </si>
@@ -59,6 +59,27 @@
   </si>
   <si>
     <t>Cluster 0</t>
+  </si>
+  <si>
+    <t>5 sensores</t>
+  </si>
+  <si>
+    <t>10 sensores</t>
+  </si>
+  <si>
+    <t>20 sensores</t>
+  </si>
+  <si>
+    <t>Iso</t>
+  </si>
+  <si>
+    <t>Dip</t>
+  </si>
+  <si>
+    <t>Caso2</t>
+  </si>
+  <si>
+    <t>Caso1</t>
   </si>
 </sst>
 </file>
@@ -422,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AP88"/>
   <sheetViews>
-    <sheetView topLeftCell="V31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP76" sqref="AP76:AP78"/>
+    <sheetView tabSelected="1" topLeftCell="V4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11:AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1130,10 @@
         <f>_xlfn.STDEV.S(D11:AG11)</f>
         <v>9.0636949626086413E-2</v>
       </c>
+      <c r="AL11"/>
+      <c r="AM11" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
@@ -1209,6 +1234,13 @@
         <f t="shared" ref="AK12:AK15" si="4">_xlfn.STDEV.S(D12:AG12)</f>
         <v>0.26813441486740031</v>
       </c>
+      <c r="AL12"/>
+      <c r="AM12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
@@ -1309,6 +1341,17 @@
         <f t="shared" si="4"/>
         <v>0.5765300221782067</v>
       </c>
+      <c r="AL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" s="2">
+        <f>AVERAGE(AJ5,AJ12)</f>
+        <v>4.1030539582227208</v>
+      </c>
+      <c r="AN13" s="2">
+        <f>AVERAGE(AJ19,AJ26)</f>
+        <v>4.2217867287734689</v>
+      </c>
     </row>
     <row r="14" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
@@ -1409,6 +1452,17 @@
         <f t="shared" si="4"/>
         <v>0.89581137907397035</v>
       </c>
+      <c r="AL14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM14" s="2">
+        <f t="shared" ref="AM14:AM15" si="5">AVERAGE(AJ6,AJ13)</f>
+        <v>6.5052084755275654</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" ref="AN14" si="6">AVERAGE(AJ20,AJ27)</f>
+        <v>6.6160894971757473</v>
+      </c>
     </row>
     <row r="15" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
@@ -1509,6 +1563,17 @@
         <f t="shared" si="4"/>
         <v>1.0163760234985628</v>
       </c>
+      <c r="AL15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="5"/>
+        <v>8.5196521018960976</v>
+      </c>
+      <c r="AN15" s="2">
+        <f>AVERAGE(AJ21,AJ28)</f>
+        <v>8.4025380938040506</v>
+      </c>
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
       <c r="AJ17" s="1" t="s">
@@ -1710,11 +1775,11 @@
         <v>4.4209476677328601</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" ref="AJ19:AJ22" si="5">AVERAGE(D19:AG19)</f>
+        <f t="shared" ref="AJ19:AJ22" si="7">AVERAGE(D19:AG19)</f>
         <v>4.2922784670612808</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" ref="AK19:AK22" si="6">_xlfn.STDEV.S(D19:AG19)</f>
+        <f t="shared" ref="AK19:AK22" si="8">_xlfn.STDEV.S(D19:AG19)</f>
         <v>0.19446699176555376</v>
       </c>
     </row>
@@ -1810,11 +1875,11 @@
         <v>6.7373466597079199</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.613866295147508</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.54756415740239461</v>
       </c>
     </row>
@@ -1910,11 +1975,11 @@
         <v>8.0802486044100306</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.4476147209178993</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.8919803155078232</v>
       </c>
     </row>
@@ -2010,11 +2075,11 @@
         <v>9.9535048090695106</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.7029552232314886</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3323530052696368</v>
       </c>
     </row>
@@ -2218,11 +2283,11 @@
         <v>4.5091750065035399</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" ref="AJ26:AJ29" si="7">AVERAGE(D26:AG26)</f>
+        <f t="shared" ref="AJ26:AJ29" si="9">AVERAGE(D26:AG26)</f>
         <v>4.1512949904856571</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" ref="AK26:AK29" si="8">_xlfn.STDEV.S(D26:AG26)</f>
+        <f t="shared" ref="AK26:AK29" si="10">_xlfn.STDEV.S(D26:AG26)</f>
         <v>0.27691694953417478</v>
       </c>
     </row>
@@ -2318,11 +2383,11 @@
         <v>6.4537073031996801</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6183126992039867</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.55228397210929703</v>
       </c>
     </row>
@@ -2418,11 +2483,11 @@
         <v>7.84372552056898</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.3574614666902001</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0320097720705019</v>
       </c>
     </row>
@@ -2518,11 +2583,11 @@
         <v>7.1191550742945902</v>
       </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.0683505081904983</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3317040537276859</v>
       </c>
     </row>
@@ -2723,11 +2788,11 @@
         <v>4.3686801621933098</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" ref="AJ34:AJ35" si="9">AVERAGE(D34:AG34)</f>
+        <f t="shared" ref="AJ34:AJ35" si="11">AVERAGE(D34:AG34)</f>
         <v>4.7420916643805846</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" ref="AK34:AK35" si="10">_xlfn.STDEV.S(D34:AG34)</f>
+        <f t="shared" ref="AK34:AK35" si="12">_xlfn.STDEV.S(D34:AG34)</f>
         <v>0.72422838105978415</v>
       </c>
       <c r="AM34" s="2"/>
@@ -2825,11 +2890,11 @@
         <v>4.1578498940806199</v>
       </c>
       <c r="AJ35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.838857833235414</v>
       </c>
       <c r="AK35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.84123340568800187</v>
       </c>
       <c r="AM35" s="2"/>
@@ -2855,7 +2920,7 @@
         <v>4.6988133367964355</v>
       </c>
       <c r="AN37" s="2">
-        <f t="shared" ref="AN37:AN38" si="11">_xlfn.STDEV.S(D34:AG34,D39:AG39,D44:AG44,D49:AG49)</f>
+        <f t="shared" ref="AN37:AN38" si="13">_xlfn.STDEV.S(D34:AG34,D39:AG39,D44:AG44,D49:AG49)</f>
         <v>0.73504319453287603</v>
       </c>
     </row>
@@ -2963,7 +3028,7 @@
         <v>5.1666540627078454</v>
       </c>
       <c r="AN38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.85771404887332037</v>
       </c>
     </row>
@@ -3059,11 +3124,11 @@
         <v>3.9087695033464098</v>
       </c>
       <c r="AJ39" s="2">
-        <f t="shared" ref="AJ39:AJ40" si="12">AVERAGE(D39:AG39)</f>
+        <f t="shared" ref="AJ39:AJ40" si="14">AVERAGE(D39:AG39)</f>
         <v>4.8207630758869868</v>
       </c>
       <c r="AK39" s="2">
-        <f t="shared" ref="AK39:AK40" si="13">_xlfn.STDEV.S(D39:AG39)</f>
+        <f t="shared" ref="AK39:AK40" si="15">_xlfn.STDEV.S(D39:AG39)</f>
         <v>0.75888929210833767</v>
       </c>
     </row>
@@ -3159,11 +3224,11 @@
         <v>4.8440915915495504</v>
       </c>
       <c r="AJ40" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.0487751672067729</v>
       </c>
       <c r="AK40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.7925425979877353</v>
       </c>
     </row>
@@ -3179,11 +3244,11 @@
     </row>
     <row r="42" spans="4:40" x14ac:dyDescent="0.25">
       <c r="AM42" s="2">
-        <f t="shared" ref="AM42:AM43" si="14">AM37-AM8</f>
+        <f t="shared" ref="AM42:AM43" si="16">AM37-AM8</f>
         <v>-3.7622817610536377</v>
       </c>
       <c r="AN42" s="1">
-        <f t="shared" ref="AN42:AN43" si="15">AM42/AM8*100</f>
+        <f t="shared" ref="AN42:AN43" si="17">AM42/AM8*100</f>
         <v>-44.465659793962331</v>
       </c>
     </row>
@@ -3287,11 +3352,11 @@
         <v>0.50267845166411718</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.7200689416047776</v>
       </c>
       <c r="AN43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-34.489216118245665</v>
       </c>
     </row>
@@ -3387,11 +3452,11 @@
         <v>5.9464853144913299</v>
       </c>
       <c r="AJ44" s="2">
-        <f t="shared" ref="AJ44:AJ45" si="16">AVERAGE(D44:AG44)</f>
+        <f t="shared" ref="AJ44:AJ45" si="18">AVERAGE(D44:AG44)</f>
         <v>4.6028765326240286</v>
       </c>
       <c r="AK44" s="2">
-        <f t="shared" ref="AK44:AK45" si="17">_xlfn.STDEV.S(D44:AG44)</f>
+        <f t="shared" ref="AK44:AK45" si="19">_xlfn.STDEV.S(D44:AG44)</f>
         <v>0.76348637071669823</v>
       </c>
       <c r="AM44" s="2"/>
@@ -3488,11 +3553,11 @@
         <v>5.1557594710671202</v>
       </c>
       <c r="AJ45" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.3286166275456006</v>
       </c>
       <c r="AK45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.79600541183397233</v>
       </c>
     </row>
@@ -3712,7 +3777,7 @@
         <v>4.6295220742941359</v>
       </c>
       <c r="AK49" s="2">
-        <f t="shared" ref="AK49:AK50" si="18">_xlfn.STDEV.S(D49:AG49)</f>
+        <f t="shared" ref="AK49:AK50" si="20">_xlfn.STDEV.S(D49:AG49)</f>
         <v>0.70845219853014474</v>
       </c>
       <c r="AM49" s="2">
@@ -3816,11 +3881,11 @@
         <v>3.8415127092867198</v>
       </c>
       <c r="AJ50" s="2">
-        <f t="shared" ref="AJ50" si="19">AVERAGE(D50:AG50)</f>
+        <f t="shared" ref="AJ50" si="21">AVERAGE(D50:AG50)</f>
         <v>5.4503666228435872</v>
       </c>
       <c r="AK50" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.90190946508380387</v>
       </c>
       <c r="AM50" s="2">
@@ -4028,7 +4093,7 @@
         <v>3.3330203162565573</v>
       </c>
       <c r="AK55" s="2">
-        <f t="shared" ref="AK55" si="20">_xlfn.STDEV.S(D55:AG55)</f>
+        <f t="shared" ref="AK55" si="22">_xlfn.STDEV.S(D55:AG55)</f>
         <v>0.82285225958952979</v>
       </c>
     </row>
@@ -4228,7 +4293,7 @@
         <v>3.3451476425472229</v>
       </c>
       <c r="AK59" s="2">
-        <f t="shared" ref="AK59" si="21">_xlfn.STDEV.S(D59:AG59)</f>
+        <f t="shared" ref="AK59" si="23">_xlfn.STDEV.S(D59:AG59)</f>
         <v>0.62248282922085196</v>
       </c>
     </row>
@@ -4428,7 +4493,7 @@
         <v>3.3982733409818882</v>
       </c>
       <c r="AK63" s="2">
-        <f t="shared" ref="AK63" si="22">_xlfn.STDEV.S(D63:AG63)</f>
+        <f t="shared" ref="AK63" si="24">_xlfn.STDEV.S(D63:AG63)</f>
         <v>0.74144976728926126</v>
       </c>
     </row>
@@ -4628,7 +4693,7 @@
         <v>3.4492211476744568</v>
       </c>
       <c r="AK67" s="2">
-        <f t="shared" ref="AK67" si="23">_xlfn.STDEV.S(D67:AG67)</f>
+        <f t="shared" ref="AK67" si="25">_xlfn.STDEV.S(D67:AG67)</f>
         <v>0.68142254418715353</v>
       </c>
     </row>
@@ -4836,15 +4901,15 @@
         <v>7.8958031033421037</v>
       </c>
       <c r="AK72" s="2">
-        <f t="shared" ref="AK72:AK73" si="24">_xlfn.STDEV.S(D72:AG72)</f>
+        <f t="shared" ref="AK72:AK73" si="26">_xlfn.STDEV.S(D72:AG72)</f>
         <v>1.2703482722331998</v>
       </c>
       <c r="AM72" s="1">
-        <f t="shared" ref="AM72:AM73" si="25">AVERAGE(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
+        <f t="shared" ref="AM72:AM73" si="27">AVERAGE(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
         <v>7.8894398265982311</v>
       </c>
       <c r="AN72" s="2">
-        <f t="shared" ref="AN72:AN73" si="26">_xlfn.STDEV.S(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
+        <f t="shared" ref="AN72:AN73" si="28">_xlfn.STDEV.S(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
         <v>1.5828502544103986</v>
       </c>
     </row>
@@ -4940,19 +5005,19 @@
         <v>8.3292933910908395</v>
       </c>
       <c r="AJ73" s="2">
-        <f t="shared" ref="AJ73" si="27">AVERAGE(D73:AG73)</f>
+        <f t="shared" ref="AJ73" si="29">AVERAGE(D73:AG73)</f>
         <v>5.6775537300298016</v>
       </c>
       <c r="AK73" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.1084354807692272</v>
       </c>
       <c r="AM73" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.7207598908428388</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.8009143060980906</v>
       </c>
     </row>
@@ -5168,23 +5233,23 @@
         <v>7.8674901240442932</v>
       </c>
       <c r="AK77" s="2">
-        <f t="shared" ref="AK77:AK78" si="28">_xlfn.STDEV.S(D77:AG77)</f>
+        <f t="shared" ref="AK77:AK78" si="30">_xlfn.STDEV.S(D77:AG77)</f>
         <v>1.6769694822763916</v>
       </c>
       <c r="AM77" s="2">
-        <f t="shared" ref="AM77:AM78" si="29">AM72-AM8</f>
+        <f t="shared" ref="AM77:AM78" si="31">AM72-AM8</f>
         <v>-0.57165527125184212</v>
       </c>
       <c r="AN77" s="1">
-        <f t="shared" ref="AN77:AN78" si="30">AM77/AM8*100</f>
+        <f t="shared" ref="AN77:AN78" si="32">AM77/AM8*100</f>
         <v>-6.7562799453358844</v>
       </c>
       <c r="AO77" s="2">
-        <f t="shared" ref="AO77:AO78" si="31">AN72-AN8</f>
+        <f t="shared" ref="AO77:AO78" si="33">AN72-AN8</f>
         <v>0.59439512623279533</v>
       </c>
       <c r="AP77" s="4">
-        <f t="shared" ref="AP77:AP78" si="32">AN72/AN8*100-100</f>
+        <f t="shared" ref="AP77:AP78" si="34">AN72/AN8*100-100</f>
         <v>60.13374904824164</v>
       </c>
     </row>
@@ -5280,27 +5345,27 @@
         <v>7.2293953481299198</v>
       </c>
       <c r="AJ78" s="2">
-        <f t="shared" ref="AJ78" si="33">AVERAGE(D78:AG78)</f>
+        <f t="shared" ref="AJ78" si="35">AVERAGE(D78:AG78)</f>
         <v>6.1734262952168102</v>
       </c>
       <c r="AK78" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.3264344255908482</v>
       </c>
       <c r="AM78" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-2.1659631134697843</v>
       </c>
       <c r="AN78" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-27.46341049743209</v>
       </c>
       <c r="AO78" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.5159512707991241</v>
       </c>
       <c r="AP78" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>117.97625528164821</v>
       </c>
     </row>
@@ -5500,7 +5565,7 @@
         <v>7.4832763067083299</v>
       </c>
       <c r="AK82" s="2">
-        <f t="shared" ref="AK82:AK83" si="34">_xlfn.STDEV.S(D82:AG82)</f>
+        <f t="shared" ref="AK82:AK83" si="36">_xlfn.STDEV.S(D82:AG82)</f>
         <v>1.9516306364963207</v>
       </c>
     </row>
@@ -5596,11 +5661,11 @@
         <v>7.013721177371</v>
       </c>
       <c r="AJ83" s="2">
-        <f t="shared" ref="AJ83" si="35">AVERAGE(D83:AG83)</f>
+        <f t="shared" ref="AJ83" si="37">AVERAGE(D83:AG83)</f>
         <v>5.0000305931307922</v>
       </c>
       <c r="AK83" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.0558627689345181</v>
       </c>
     </row>
@@ -5800,7 +5865,7 @@
         <v>8.3111897722981958</v>
       </c>
       <c r="AK87" s="2">
-        <f t="shared" ref="AK87:AK88" si="36">_xlfn.STDEV.S(D87:AG87)</f>
+        <f t="shared" ref="AK87:AK88" si="38">_xlfn.STDEV.S(D87:AG87)</f>
         <v>1.3002933529839806</v>
       </c>
     </row>
@@ -5896,11 +5961,11 @@
         <v>2.7385214521799202</v>
       </c>
       <c r="AJ88" s="2">
-        <f t="shared" ref="AJ88" si="37">AVERAGE(D88:AG88)</f>
+        <f t="shared" ref="AJ88" si="39">AVERAGE(D88:AG88)</f>
         <v>6.0320289449939448</v>
       </c>
       <c r="AK88" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.6320308716060885</v>
       </c>
     </row>
@@ -5914,8 +5979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AQ114"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection sqref="A1:AR91"/>
+    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11:AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6618,7 +6683,9 @@
         <f>_xlfn.STDEV.S(D11:AG11)</f>
         <v>6.1873474571539036E-2</v>
       </c>
-      <c r="AM11" s="1"/>
+      <c r="AM11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
@@ -6723,8 +6790,12 @@
         <f t="shared" ref="AK12:AK15" si="4">_xlfn.STDEV.S(D12:AG12)</f>
         <v>0.14149218562526408</v>
       </c>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
+      <c r="AM12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -6828,8 +6899,17 @@
         <f t="shared" si="4"/>
         <v>0.43755965251384243</v>
       </c>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
+      <c r="AL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" s="2">
+        <f>AVERAGE(AJ5,AJ12)</f>
+        <v>4.1967017749388837</v>
+      </c>
+      <c r="AN13" s="2">
+        <f>AVERAGE(AJ19,AJ26)</f>
+        <v>4.3209471511328488</v>
+      </c>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -6933,8 +7013,17 @@
         <f t="shared" si="4"/>
         <v>1.023098402187373</v>
       </c>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
+      <c r="AL14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM14" s="2">
+        <f t="shared" ref="AM14:AM15" si="5">AVERAGE(AJ6,AJ13)</f>
+        <v>6.9237412333723753</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" ref="AN14" si="6">AVERAGE(AJ20,AJ27)</f>
+        <v>7.2199455498044021</v>
+      </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -7038,8 +7127,17 @@
         <f t="shared" si="4"/>
         <v>1.4719732780582659</v>
       </c>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
+      <c r="AL15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="5"/>
+        <v>10.559459629389412</v>
+      </c>
+      <c r="AN15" s="2">
+        <f>AVERAGE(AJ21,AJ28)</f>
+        <v>10.774963435890092</v>
+      </c>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -7263,11 +7361,11 @@
         <v>4.2908228325175299</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" ref="AJ19:AJ22" si="5">AVERAGE(D19:AG19)</f>
+        <f t="shared" ref="AJ19:AJ22" si="7">AVERAGE(D19:AG19)</f>
         <v>4.3568308807885705</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" ref="AK19:AK22" si="6">_xlfn.STDEV.S(D19:AG19)</f>
+        <f t="shared" ref="AK19:AK22" si="8">_xlfn.STDEV.S(D19:AG19)</f>
         <v>0.16920585307455488</v>
       </c>
       <c r="AM19" s="1"/>
@@ -7368,11 +7466,11 @@
         <v>6.6629804868226499</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2942454721705419</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.46985508587177321</v>
       </c>
       <c r="AM20" s="1"/>
@@ -7473,11 +7571,11 @@
         <v>10.2333795976894</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.977849715856705</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.95009893369756993</v>
       </c>
       <c r="AM21" s="1"/>
@@ -7578,11 +7676,11 @@
         <v>13.243197323263299</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.307215999042823</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1739755373020735</v>
       </c>
       <c r="AM22" s="1"/>
@@ -7810,11 +7908,11 @@
         <v>4.31314231443704</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" ref="AJ26:AJ29" si="7">AVERAGE(D26:AG26)</f>
+        <f t="shared" ref="AJ26:AJ29" si="9">AVERAGE(D26:AG26)</f>
         <v>4.285063421477127</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" ref="AK26:AK29" si="8">_xlfn.STDEV.S(D26:AG26)</f>
+        <f t="shared" ref="AK26:AK29" si="10">_xlfn.STDEV.S(D26:AG26)</f>
         <v>0.15829358325574031</v>
       </c>
       <c r="AM26" s="1"/>
@@ -7915,11 +8013,11 @@
         <v>7.3309636280058097</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1456456274382614</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.53794659836113734</v>
       </c>
       <c r="AM27" s="1"/>
@@ -8020,11 +8118,11 @@
         <v>10.174133811025399</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.572077155923479</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0267560723946796</v>
       </c>
       <c r="AM28" s="1"/>
@@ -8125,11 +8223,11 @@
         <v>11.2325341713229</v>
       </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.325357341076387</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1926433145795354</v>
       </c>
       <c r="AM29" s="1"/>
@@ -8364,11 +8462,11 @@
         <v>4.62652021774141</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" ref="AJ34:AJ35" si="9">AVERAGE(D34:AG34)</f>
+        <f t="shared" ref="AJ34:AJ35" si="11">AVERAGE(D34:AG34)</f>
         <v>5.0189365764855189</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" ref="AK34:AK35" si="10">_xlfn.STDEV.S(D34:AG34)</f>
+        <f t="shared" ref="AK34:AK35" si="12">_xlfn.STDEV.S(D34:AG34)</f>
         <v>0.82065162718076301</v>
       </c>
       <c r="AM34" s="2"/>
@@ -8469,11 +8567,11 @@
         <v>4.1043156567456602</v>
       </c>
       <c r="AJ35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.4203412352724687</v>
       </c>
       <c r="AK35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.77509548223592828</v>
       </c>
       <c r="AM35" s="2" t="s">
@@ -8509,7 +8607,7 @@
         <v>5.055895079167545</v>
       </c>
       <c r="AN37" s="2">
-        <f t="shared" ref="AN37:AN38" si="11">_xlfn.STDEV.S(D34:AG34,D39:AG39,D44:AG44,D49:AG49)</f>
+        <f t="shared" ref="AN37:AN38" si="13">_xlfn.STDEV.S(D34:AG34,D39:AG39,D44:AG44,D49:AG49)</f>
         <v>0.83820332159048183</v>
       </c>
       <c r="AO37" s="1"/>
@@ -8620,7 +8718,7 @@
         <v>5.7869904606074378</v>
       </c>
       <c r="AN38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.86278686115660508</v>
       </c>
       <c r="AO38" s="1"/>
@@ -8719,11 +8817,11 @@
         <v>4.99580959957839</v>
       </c>
       <c r="AJ39" s="2">
-        <f t="shared" ref="AJ39:AJ40" si="12">AVERAGE(D39:AG39)</f>
+        <f t="shared" ref="AJ39:AJ40" si="14">AVERAGE(D39:AG39)</f>
         <v>5.0329344410174466</v>
       </c>
       <c r="AK39" s="2">
-        <f t="shared" ref="AK39:AK40" si="13">_xlfn.STDEV.S(D39:AG39)</f>
+        <f t="shared" ref="AK39:AK40" si="15">_xlfn.STDEV.S(D39:AG39)</f>
         <v>1.0268761673528151</v>
       </c>
       <c r="AM39" s="1"/>
@@ -8824,11 +8922,11 @@
         <v>6.0366420869713</v>
       </c>
       <c r="AJ40" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.6502439661785875</v>
       </c>
       <c r="AK40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.85250801911756646</v>
       </c>
       <c r="AM40" s="1" t="s">
@@ -8860,11 +8958,11 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AM42" s="2">
-        <f t="shared" ref="AM42:AM43" si="14">AM37-AM8</f>
+        <f t="shared" ref="AM42:AM43" si="16">AM37-AM8</f>
         <v>-5.6113164534722078</v>
       </c>
       <c r="AN42" s="2">
-        <f t="shared" ref="AN42:AN43" si="15">AM42/AM8*100</f>
+        <f t="shared" ref="AN42:AN43" si="17">AM42/AM8*100</f>
         <v>-52.603404707055702</v>
       </c>
       <c r="AO42" s="1"/>
@@ -8971,11 +9069,11 @@
         <v>0.66235492913501193</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.3093756573106852</v>
       </c>
       <c r="AN43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-47.847877412202934</v>
       </c>
       <c r="AO43" s="1"/>
@@ -9074,11 +9172,11 @@
         <v>4.1067931596379497</v>
       </c>
       <c r="AJ44" s="2">
-        <f t="shared" ref="AJ44:AJ45" si="16">AVERAGE(D44:AG44)</f>
+        <f t="shared" ref="AJ44:AJ45" si="18">AVERAGE(D44:AG44)</f>
         <v>5.1786385851739443</v>
       </c>
       <c r="AK44" s="2">
-        <f t="shared" ref="AK44:AK45" si="17">_xlfn.STDEV.S(D44:AG44)</f>
+        <f t="shared" ref="AK44:AK45" si="19">_xlfn.STDEV.S(D44:AG44)</f>
         <v>0.62870276482208975</v>
       </c>
       <c r="AM44" s="2"/>
@@ -9179,11 +9277,11 @@
         <v>6.4419712819006998</v>
       </c>
       <c r="AJ45" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.1777517027221887</v>
       </c>
       <c r="AK45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.89665885783521004</v>
       </c>
       <c r="AM45" s="1"/>
@@ -9411,7 +9509,7 @@
         <v>4.9930707139932826</v>
       </c>
       <c r="AK49" s="2">
-        <f t="shared" ref="AK49:AK50" si="18">_xlfn.STDEV.S(D49:AG49)</f>
+        <f t="shared" ref="AK49:AK50" si="20">_xlfn.STDEV.S(D49:AG49)</f>
         <v>0.85917554109273142</v>
       </c>
       <c r="AM49" s="2"/>
@@ -9512,11 +9610,11 @@
         <v>4.43557382291156</v>
       </c>
       <c r="AJ50" s="2">
-        <f t="shared" ref="AJ50" si="19">AVERAGE(D50:AG50)</f>
+        <f t="shared" ref="AJ50" si="21">AVERAGE(D50:AG50)</f>
         <v>5.899624938256502</v>
       </c>
       <c r="AK50" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.77043905851058692</v>
       </c>
       <c r="AM50" s="2"/>
@@ -9755,7 +9853,7 @@
         <v>3.3980070687403847</v>
       </c>
       <c r="AK55" s="2">
-        <f t="shared" ref="AK55" si="20">_xlfn.STDEV.S(D55:AG55)</f>
+        <f t="shared" ref="AK55" si="22">_xlfn.STDEV.S(D55:AG55)</f>
         <v>0.65360453866547585</v>
       </c>
       <c r="AM55" s="2" t="s">
@@ -9999,7 +10097,7 @@
         <v>3.4514370778706254</v>
       </c>
       <c r="AK59" s="2">
-        <f t="shared" ref="AK59" si="21">_xlfn.STDEV.S(D59:AG59)</f>
+        <f t="shared" ref="AK59" si="23">_xlfn.STDEV.S(D59:AG59)</f>
         <v>0.72990068736095637</v>
       </c>
       <c r="AM59" s="1" t="s">
@@ -10243,7 +10341,7 @@
         <v>3.8432978850563662</v>
       </c>
       <c r="AK63" s="2">
-        <f t="shared" ref="AK63" si="22">_xlfn.STDEV.S(D63:AG63)</f>
+        <f t="shared" ref="AK63" si="24">_xlfn.STDEV.S(D63:AG63)</f>
         <v>0.83691953379771733</v>
       </c>
       <c r="AM63" s="1"/>
@@ -10471,7 +10569,7 @@
         <v>3.8946310190482505</v>
       </c>
       <c r="AK67" s="2">
-        <f t="shared" ref="AK67" si="23">_xlfn.STDEV.S(D67:AG67)</f>
+        <f t="shared" ref="AK67" si="25">_xlfn.STDEV.S(D67:AG67)</f>
         <v>0.68249150843567563</v>
       </c>
       <c r="AM67" s="1"/>
@@ -10720,15 +10818,15 @@
         <v>9.3564358634277838</v>
       </c>
       <c r="AK72" s="2">
-        <f t="shared" ref="AK72:AK73" si="24">_xlfn.STDEV.S(D72:AG72)</f>
+        <f t="shared" ref="AK72:AK73" si="26">_xlfn.STDEV.S(D72:AG72)</f>
         <v>2.0673477056038458</v>
       </c>
       <c r="AM72" s="2">
-        <f t="shared" ref="AM72:AM73" si="25">AVERAGE(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
+        <f t="shared" ref="AM72:AM73" si="27">AVERAGE(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
         <v>9.4690276378070735</v>
       </c>
       <c r="AN72" s="2">
-        <f t="shared" ref="AN72:AN73" si="26">_xlfn.STDEV.S(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
+        <f t="shared" ref="AN72:AN73" si="28">_xlfn.STDEV.S(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
         <v>2.2665653248822979</v>
       </c>
       <c r="AO72" s="1"/>
@@ -10827,19 +10925,19 @@
         <v>0.291339819473936</v>
       </c>
       <c r="AJ73" s="2">
-        <f t="shared" ref="AJ73" si="27">AVERAGE(D73:AG73)</f>
+        <f t="shared" ref="AJ73" si="29">AVERAGE(D73:AG73)</f>
         <v>8.3352255941231004</v>
       </c>
       <c r="AK73" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.5089341412643815</v>
       </c>
       <c r="AM73" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.1977834287778464</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.1722333785839623</v>
       </c>
       <c r="AO73" s="1"/>
@@ -10980,7 +11078,7 @@
         <v>0.33720639066497604</v>
       </c>
       <c r="AP76" s="4">
-        <f t="shared" ref="AP76:AP77" si="28">AN71/AN7*100-100</f>
+        <f t="shared" ref="AP76:AP77" si="30">AN71/AN7*100-100</f>
         <v>68.345721417894879</v>
       </c>
       <c r="AQ76" s="1"/>
@@ -11081,23 +11179,23 @@
         <v>9.6514099961037569</v>
       </c>
       <c r="AK77" s="2">
-        <f t="shared" ref="AK77:AK78" si="29">_xlfn.STDEV.S(D77:AG77)</f>
+        <f t="shared" ref="AK77:AK78" si="31">_xlfn.STDEV.S(D77:AG77)</f>
         <v>2.0313364261609368</v>
       </c>
       <c r="AM77" s="2">
-        <f t="shared" ref="AM77:AM78" si="30">AM72-AM8</f>
+        <f t="shared" ref="AM77:AM78" si="32">AM72-AM8</f>
         <v>-1.1981838948326793</v>
       </c>
       <c r="AN77" s="2">
-        <f t="shared" ref="AN77:AN78" si="31">AM77/AM8*100</f>
+        <f t="shared" ref="AN77:AN78" si="33">AM77/AM8*100</f>
         <v>-11.232400249741477</v>
       </c>
       <c r="AO77" s="2">
-        <f t="shared" ref="AO77:AO78" si="32">AN72-AN8</f>
+        <f t="shared" ref="AO77:AO78" si="34">AN72-AN8</f>
         <v>1.2670699521102202</v>
       </c>
       <c r="AP77" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>126.77096729282806</v>
       </c>
       <c r="AQ77" s="1"/>
@@ -11194,23 +11292,23 @@
         <v>5.5918222801645801</v>
       </c>
       <c r="AJ78" s="2">
-        <f t="shared" ref="AJ78" si="33">AVERAGE(D78:AG78)</f>
+        <f t="shared" ref="AJ78" si="35">AVERAGE(D78:AG78)</f>
         <v>8.270696409083973</v>
       </c>
       <c r="AK78" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.9504038736521467</v>
       </c>
       <c r="AM78" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-2.8985826891402766</v>
       </c>
       <c r="AN78" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-26.121909265950777</v>
       </c>
       <c r="AO78" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.8366454306334412</v>
       </c>
       <c r="AP78" s="4">
@@ -11438,7 +11536,7 @@
         <v>9.7263235282099529</v>
       </c>
       <c r="AK82" s="2">
-        <f t="shared" ref="AK82:AK83" si="34">_xlfn.STDEV.S(D82:AG82)</f>
+        <f t="shared" ref="AK82:AK83" si="36">_xlfn.STDEV.S(D82:AG82)</f>
         <v>2.3478149679813818</v>
       </c>
       <c r="AM82" s="1"/>
@@ -11539,11 +11637,11 @@
         <v>11.1688537440457</v>
       </c>
       <c r="AJ83" s="2">
-        <f t="shared" ref="AJ83" si="35">AVERAGE(D83:AG83)</f>
+        <f t="shared" ref="AJ83" si="37">AVERAGE(D83:AG83)</f>
         <v>7.839218939053751</v>
       </c>
       <c r="AK83" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.6657182441004394</v>
       </c>
       <c r="AM83" s="1"/>
@@ -11771,7 +11869,7 @@
         <v>9.1419411634867647</v>
       </c>
       <c r="AK87" s="2">
-        <f t="shared" ref="AK87:AK88" si="36">_xlfn.STDEV.S(D87:AG87)</f>
+        <f t="shared" ref="AK87:AK88" si="38">_xlfn.STDEV.S(D87:AG87)</f>
         <v>2.6346817281060328</v>
       </c>
       <c r="AM87" s="1"/>
@@ -11872,11 +11970,11 @@
         <v>9.5890726515386397</v>
       </c>
       <c r="AJ88" s="2">
-        <f t="shared" ref="AJ88" si="37">AVERAGE(D88:AG88)</f>
+        <f t="shared" ref="AJ88" si="39">AVERAGE(D88:AG88)</f>
         <v>8.3459927728505559</v>
       </c>
       <c r="AK88" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.5602492352217823</v>
       </c>
       <c r="AM88" s="1"/>
@@ -12077,8 +12175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AQ91"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection sqref="A1:AS92"/>
+    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12:AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12884,8 +12982,12 @@
         <f t="shared" ref="AK12:AK15" si="4">_xlfn.STDEV.S(D12:AG12)</f>
         <v>0.35745432079551093</v>
       </c>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
+      <c r="AM12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -12989,8 +13091,17 @@
         <f t="shared" si="4"/>
         <v>1.346774843376437</v>
       </c>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
+      <c r="AL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" s="2">
+        <f>AVERAGE(AJ5,AJ12)</f>
+        <v>4.4580286638103868</v>
+      </c>
+      <c r="AN13" s="2">
+        <f>AVERAGE(AJ19,AJ26)</f>
+        <v>4.4332260376972012</v>
+      </c>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -13094,8 +13205,17 @@
         <f t="shared" si="4"/>
         <v>3.2756684142631753</v>
       </c>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
+      <c r="AL14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM14" s="2">
+        <f t="shared" ref="AM14:AM15" si="5">AVERAGE(AJ6,AJ13)</f>
+        <v>9.6382647586513492</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" ref="AN14" si="6">AVERAGE(AJ20,AJ27)</f>
+        <v>9.8018396754248034</v>
+      </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -13199,8 +13319,17 @@
         <f t="shared" si="4"/>
         <v>3.4149207342704742</v>
       </c>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
+      <c r="AL15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="5"/>
+        <v>16.216907711420916</v>
+      </c>
+      <c r="AN15" s="2">
+        <f>AVERAGE(AJ21,AJ28)</f>
+        <v>15.944082701894363</v>
+      </c>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -13424,15 +13553,19 @@
         <v>4.36159297491663</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" ref="AJ19:AJ22" si="5">AVERAGE(D19:AG19)</f>
+        <f t="shared" ref="AJ19:AJ22" si="7">AVERAGE(D19:AG19)</f>
         <v>4.4372942313598243</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" ref="AK19:AK22" si="6">_xlfn.STDEV.S(D19:AG19)</f>
+        <f t="shared" ref="AK19:AK22" si="8">_xlfn.STDEV.S(D19:AG19)</f>
         <v>0.30321350990948942</v>
       </c>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
+      <c r="AM19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -13529,15 +13662,24 @@
         <v>8.8360789300011895</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.85685194733197</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8619751337369903</v>
       </c>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
+      <c r="AL20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM20" s="2">
+        <f>AVERAGE(AJ12,AJ19)</f>
+        <v>4.4383204969996681</v>
+      </c>
+      <c r="AN20" s="2">
+        <f>AVERAGE(AJ26,AJ33)</f>
+        <v>4.7732992123012199</v>
+      </c>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -13634,15 +13776,24 @@
         <v>15.3048944020249</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.912664907412607</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4400103098866195</v>
       </c>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
+      <c r="AL21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM21" s="2">
+        <f t="shared" ref="AM21:AM22" si="9">AVERAGE(AJ13,AJ20)</f>
+        <v>9.7466991057296912</v>
+      </c>
+      <c r="AN21" s="2">
+        <f t="shared" ref="AN21" si="10">AVERAGE(AJ27,AJ34)</f>
+        <v>9.3535802165842803</v>
+      </c>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -13739,15 +13890,24 @@
         <v>20.389395980014701</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.434858692223264</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.957093154977454</v>
       </c>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
+      <c r="AL22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="9"/>
+        <v>16.159513610241632</v>
+      </c>
+      <c r="AN22" s="2">
+        <f>AVERAGE(AJ28,AJ35)</f>
+        <v>12.857749815889026</v>
+      </c>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
@@ -13971,11 +14131,11 @@
         <v>4.9066692451219396</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" ref="AJ26:AJ29" si="7">AVERAGE(D26:AG26)</f>
+        <f t="shared" ref="AJ26:AJ29" si="11">AVERAGE(D26:AG26)</f>
         <v>4.4291578440345782</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" ref="AK26:AK29" si="8">_xlfn.STDEV.S(D26:AG26)</f>
+        <f t="shared" ref="AK26:AK29" si="12">_xlfn.STDEV.S(D26:AG26)</f>
         <v>0.28169191213020006</v>
       </c>
       <c r="AM26" s="1"/>
@@ -14076,11 +14236,11 @@
         <v>11.0493166431761</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.7468274035176368</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1758174597000728</v>
       </c>
       <c r="AM27" s="1"/>
@@ -14181,11 +14341,11 @@
         <v>15.982699021137501</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15.975500496376117</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.6728919115884118</v>
       </c>
       <c r="AM28" s="1"/>
@@ -14286,11 +14446,11 @@
         <v>19.065827137244501</v>
       </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15.158194549859974</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.6201747821893324</v>
       </c>
       <c r="AM29" s="1"/>
@@ -14525,11 +14685,11 @@
         <v>8.57400679464196</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" ref="AJ34:AJ35" si="9">AVERAGE(D34:AG34)</f>
+        <f t="shared" ref="AJ34:AJ35" si="13">AVERAGE(D34:AG34)</f>
         <v>8.9603330296509238</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" ref="AK34:AK35" si="10">_xlfn.STDEV.S(D34:AG34)</f>
+        <f t="shared" ref="AK34:AK35" si="14">_xlfn.STDEV.S(D34:AG34)</f>
         <v>1.7339802793500168</v>
       </c>
       <c r="AM34" s="2"/>
@@ -14630,11 +14790,11 @@
         <v>10.566269758079599</v>
       </c>
       <c r="AJ35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.7399991354019342</v>
       </c>
       <c r="AK35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.7631628447430159</v>
       </c>
       <c r="AM35" s="2" t="s">
@@ -14670,7 +14830,7 @@
         <v>8.4087088764714721</v>
       </c>
       <c r="AN37" s="2">
-        <f t="shared" ref="AN37:AN38" si="11">_xlfn.STDEV.S(D34:AG34,D39:AG39,D44:AG44,D49:AG49)</f>
+        <f t="shared" ref="AN37:AN38" si="15">_xlfn.STDEV.S(D34:AG34,D39:AG39,D44:AG44,D49:AG49)</f>
         <v>1.6457605132189475</v>
       </c>
       <c r="AO37" s="1"/>
@@ -14781,7 +14941,7 @@
         <v>10.070454472488542</v>
       </c>
       <c r="AN38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.0086907962060647</v>
       </c>
       <c r="AO38" s="1"/>
@@ -14880,11 +15040,11 @@
         <v>8.6092960668906908</v>
       </c>
       <c r="AJ39" s="2">
-        <f t="shared" ref="AJ39:AJ40" si="12">AVERAGE(D39:AG39)</f>
+        <f t="shared" ref="AJ39:AJ40" si="16">AVERAGE(D39:AG39)</f>
         <v>8.4121106890629562</v>
       </c>
       <c r="AK39" s="2">
-        <f t="shared" ref="AK39:AK40" si="13">_xlfn.STDEV.S(D39:AG39)</f>
+        <f t="shared" ref="AK39:AK40" si="17">_xlfn.STDEV.S(D39:AG39)</f>
         <v>1.8418138377018534</v>
       </c>
       <c r="AM39" s="1"/>
@@ -14985,11 +15145,11 @@
         <v>9.1574531977104296</v>
       </c>
       <c r="AJ40" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>10.581347883770563</v>
       </c>
       <c r="AK40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.0668538873387403</v>
       </c>
       <c r="AM40" s="1" t="s">
@@ -15021,11 +15181,11 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AM42" s="2">
-        <f t="shared" ref="AM42:AM43" si="14">AM37-AM8</f>
+        <f t="shared" ref="AM42:AM43" si="18">AM37-AM8</f>
         <v>-7.6717863301861655</v>
       </c>
       <c r="AN42" s="2">
-        <f t="shared" ref="AN42:AN43" si="15">AM42/AM8*100</f>
+        <f t="shared" ref="AN42:AN43" si="19">AM42/AM8*100</f>
         <v>-47.708644737569379</v>
       </c>
       <c r="AO42" s="1"/>
@@ -15132,11 +15292,11 @@
         <v>1.1213533299263869</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-5.5971571409565861</v>
       </c>
       <c r="AN43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-35.724380199426172</v>
       </c>
       <c r="AO43" s="1"/>
@@ -15235,11 +15395,11 @@
         <v>7.5665987963948496</v>
       </c>
       <c r="AJ44" s="2">
-        <f t="shared" ref="AJ44:AJ45" si="16">AVERAGE(D44:AG44)</f>
+        <f t="shared" ref="AJ44:AJ45" si="20">AVERAGE(D44:AG44)</f>
         <v>8.345114639249914</v>
       </c>
       <c r="AK44" s="2">
-        <f t="shared" ref="AK44:AK45" si="17">_xlfn.STDEV.S(D44:AG44)</f>
+        <f t="shared" ref="AK44:AK45" si="21">_xlfn.STDEV.S(D44:AG44)</f>
         <v>1.6011585165297988</v>
       </c>
       <c r="AM44" s="2"/>
@@ -15340,11 +15500,11 @@
         <v>10.523102927606001</v>
       </c>
       <c r="AJ45" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.8872984470367768</v>
       </c>
       <c r="AK45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.0031599590505964</v>
       </c>
       <c r="AM45" s="1"/>
@@ -15572,7 +15732,7 @@
         <v>7.9172771479221193</v>
       </c>
       <c r="AK49" s="2">
-        <f t="shared" ref="AK49:AK50" si="18">_xlfn.STDEV.S(D49:AG49)</f>
+        <f t="shared" ref="AK49:AK50" si="22">_xlfn.STDEV.S(D49:AG49)</f>
         <v>1.2581010564527704</v>
       </c>
       <c r="AM49" s="2"/>
@@ -15673,11 +15833,11 @@
         <v>9.7947162449928502</v>
       </c>
       <c r="AJ50" s="2">
-        <f t="shared" ref="AJ50" si="19">AVERAGE(D50:AG50)</f>
+        <f t="shared" ref="AJ50" si="23">AVERAGE(D50:AG50)</f>
         <v>10.073172423744881</v>
       </c>
       <c r="AK50" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.1784821863214989</v>
       </c>
       <c r="AM50" s="2"/>
@@ -15916,7 +16076,7 @@
         <v>6.4091242020208652</v>
       </c>
       <c r="AK55" s="2">
-        <f t="shared" ref="AK55" si="20">_xlfn.STDEV.S(D55:AG55)</f>
+        <f t="shared" ref="AK55" si="24">_xlfn.STDEV.S(D55:AG55)</f>
         <v>1.4322833624376399</v>
       </c>
       <c r="AM55" s="2" t="s">
@@ -16160,7 +16320,7 @@
         <v>6.959723394504123</v>
       </c>
       <c r="AK59" s="2">
-        <f t="shared" ref="AK59" si="21">_xlfn.STDEV.S(D59:AG59)</f>
+        <f t="shared" ref="AK59" si="25">_xlfn.STDEV.S(D59:AG59)</f>
         <v>2.0129658371001349</v>
       </c>
       <c r="AM59" s="1" t="s">
@@ -16404,7 +16564,7 @@
         <v>6.0994253764985107</v>
       </c>
       <c r="AK63" s="2">
-        <f t="shared" ref="AK63" si="22">_xlfn.STDEV.S(D63:AG63)</f>
+        <f t="shared" ref="AK63" si="26">_xlfn.STDEV.S(D63:AG63)</f>
         <v>1.1740556844073444</v>
       </c>
       <c r="AM63" s="1"/>
@@ -16632,7 +16792,7 @@
         <v>6.4873323755773908</v>
       </c>
       <c r="AK67" s="2">
-        <f t="shared" ref="AK67" si="23">_xlfn.STDEV.S(D67:AG67)</f>
+        <f t="shared" ref="AK67" si="27">_xlfn.STDEV.S(D67:AG67)</f>
         <v>1.501500757848671</v>
       </c>
       <c r="AM67" s="1"/>
@@ -16881,15 +17041,15 @@
         <v>14.041173809652683</v>
       </c>
       <c r="AK72" s="2">
-        <f t="shared" ref="AK72:AK73" si="24">_xlfn.STDEV.S(D72:AG72)</f>
+        <f t="shared" ref="AK72:AK73" si="28">_xlfn.STDEV.S(D72:AG72)</f>
         <v>4.0407195931369131</v>
       </c>
       <c r="AM72" s="2">
-        <f t="shared" ref="AM72:AM73" si="25">AVERAGE(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
+        <f t="shared" ref="AM72:AM73" si="29">AVERAGE(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
         <v>13.551484160642197</v>
       </c>
       <c r="AN72" s="2">
-        <f t="shared" ref="AN72:AN73" si="26">_xlfn.STDEV.S(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
+        <f t="shared" ref="AN72:AN73" si="30">_xlfn.STDEV.S(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
         <v>4.6100549087275491</v>
       </c>
       <c r="AO72" s="1"/>
@@ -16988,19 +17148,19 @@
         <v>13.846637698615</v>
       </c>
       <c r="AJ73" s="2">
-        <f t="shared" ref="AJ73" si="27">AVERAGE(D73:AG73)</f>
+        <f t="shared" ref="AJ73" si="31">AVERAGE(D73:AG73)</f>
         <v>9.8918133420898506</v>
       </c>
       <c r="AK73" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.4665153717026742</v>
       </c>
       <c r="AM73" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10.83617547119956</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>6.2278595793898504</v>
       </c>
       <c r="AO73" s="1"/>
@@ -17141,7 +17301,7 @@
         <v>0.78291269719585355</v>
       </c>
       <c r="AP76" s="4">
-        <f t="shared" ref="AP76:AP77" si="28">AN71/AN7*100-100</f>
+        <f t="shared" ref="AP76:AP77" si="32">AN71/AN7*100-100</f>
         <v>53.030726639472704</v>
       </c>
       <c r="AQ76" s="1"/>
@@ -17242,23 +17402,23 @@
         <v>13.403839839550232</v>
       </c>
       <c r="AK77" s="2">
-        <f t="shared" ref="AK77:AK78" si="29">_xlfn.STDEV.S(D77:AG77)</f>
+        <f t="shared" ref="AK77:AK78" si="33">_xlfn.STDEV.S(D77:AG77)</f>
         <v>5.2991539868316924</v>
       </c>
       <c r="AM77" s="2">
-        <f t="shared" ref="AM77:AM78" si="30">AM72-AM8</f>
+        <f t="shared" ref="AM77:AM78" si="34">AM72-AM8</f>
         <v>-2.5290110460154409</v>
       </c>
       <c r="AN77" s="2">
-        <f t="shared" ref="AN77:AN78" si="31">AM77/AM8*100</f>
+        <f t="shared" ref="AN77:AN78" si="35">AM77/AM8*100</f>
         <v>-15.727196292862805</v>
       </c>
       <c r="AO77" s="2">
-        <f t="shared" ref="AO77:AO78" si="32">AN72-AN8</f>
+        <f t="shared" ref="AO77:AO78" si="36">AN72-AN8</f>
         <v>1.3451035909045466</v>
       </c>
       <c r="AP77" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>41.198274031278117</v>
       </c>
       <c r="AQ77" s="1"/>
@@ -17355,23 +17515,23 @@
         <v>14.4238131467181</v>
       </c>
       <c r="AJ78" s="2">
-        <f t="shared" ref="AJ78" si="33">AVERAGE(D78:AG78)</f>
+        <f t="shared" ref="AJ78" si="37">AVERAGE(D78:AG78)</f>
         <v>10.193009423285122</v>
       </c>
       <c r="AK78" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>6.5157169545257938</v>
       </c>
       <c r="AM78" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-4.8314361422455683</v>
       </c>
       <c r="AN78" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-30.837094136923088</v>
       </c>
       <c r="AO78" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.2438601729146881</v>
       </c>
       <c r="AP78" s="4">
@@ -17599,7 +17759,7 @@
         <v>13.040927882607869</v>
       </c>
       <c r="AK82" s="2">
-        <f t="shared" ref="AK82:AK83" si="34">_xlfn.STDEV.S(D82:AG82)</f>
+        <f t="shared" ref="AK82:AK83" si="38">_xlfn.STDEV.S(D82:AG82)</f>
         <v>4.7846866403959547</v>
       </c>
       <c r="AM82" s="1"/>
@@ -17700,11 +17860,11 @@
         <v>14.9504035895412</v>
       </c>
       <c r="AJ83" s="2">
-        <f t="shared" ref="AJ83" si="35">AVERAGE(D83:AG83)</f>
+        <f t="shared" ref="AJ83" si="39">AVERAGE(D83:AG83)</f>
         <v>11.699124512697244</v>
       </c>
       <c r="AK83" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>6.6786884460995264</v>
       </c>
       <c r="AM83" s="1"/>
@@ -17932,7 +18092,7 @@
         <v>13.719995110758038</v>
       </c>
       <c r="AK87" s="2">
-        <f t="shared" ref="AK87:AK88" si="36">_xlfn.STDEV.S(D87:AG87)</f>
+        <f t="shared" ref="AK87:AK88" si="40">_xlfn.STDEV.S(D87:AG87)</f>
         <v>4.3974594704504142</v>
       </c>
       <c r="AM87" s="1"/>
@@ -18033,11 +18193,11 @@
         <v>14.622804706931101</v>
       </c>
       <c r="AJ88" s="2">
-        <f t="shared" ref="AJ88" si="37">AVERAGE(D88:AG88)</f>
+        <f t="shared" ref="AJ88" si="41">AVERAGE(D88:AG88)</f>
         <v>11.560754606726022</v>
       </c>
       <c r="AK88" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>6.2889660653832493</v>
       </c>
       <c r="AM88" s="1"/>
@@ -18077,11 +18237,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AQ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM71" sqref="AM71:AM73"/>
+    <sheetView topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12:AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="38" max="38" width="16.85546875" customWidth="1"/>
+    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="4:43" x14ac:dyDescent="0.25">
       <c r="AJ2" t="s">
@@ -18881,8 +19045,12 @@
         <f t="shared" ref="AK12:AK15" si="4">_xlfn.STDEV.S(D12:AG12)</f>
         <v>0.24492009236636342</v>
       </c>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
+      <c r="AM12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -18986,8 +19154,17 @@
         <f t="shared" si="4"/>
         <v>1.4124701771367625</v>
       </c>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
+      <c r="AL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" s="2">
+        <f>AVERAGE(AJ5,AJ12)</f>
+        <v>4.5340149921451269</v>
+      </c>
+      <c r="AN13" s="2">
+        <f>AVERAGE(AJ19,AJ26)</f>
+        <v>4.5205202935934148</v>
+      </c>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -19091,8 +19268,17 @@
         <f t="shared" si="4"/>
         <v>3.0202992483782776</v>
       </c>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
+      <c r="AL14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM14" s="2">
+        <f t="shared" ref="AM14:AM15" si="5">AVERAGE(AJ6,AJ13)</f>
+        <v>10.126514001709587</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" ref="AN14:AN15" si="6">AVERAGE(AJ20,AJ27)</f>
+        <v>10.063961470180555</v>
+      </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -19196,8 +19382,17 @@
         <f t="shared" si="4"/>
         <v>3.8876511982904272</v>
       </c>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
+      <c r="AL15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="5"/>
+        <v>19.104781491799571</v>
+      </c>
+      <c r="AN15" s="2">
+        <f>AVERAGE(AJ21,AJ28)</f>
+        <v>18.904530166296727</v>
+      </c>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -19421,11 +19616,11 @@
         <v>4.5152909009218201</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" ref="AJ19:AJ22" si="5">AVERAGE(D19:AG19)</f>
+        <f t="shared" ref="AJ19:AJ22" si="7">AVERAGE(D19:AG19)</f>
         <v>4.5155666564965111</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" ref="AK19:AK22" si="6">_xlfn.STDEV.S(D19:AG19)</f>
+        <f t="shared" ref="AK19:AK22" si="8">_xlfn.STDEV.S(D19:AG19)</f>
         <v>0.31422178634197029</v>
       </c>
       <c r="AM19" s="1"/>
@@ -19526,11 +19721,11 @@
         <v>9.2038841686384103</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9518988205993004</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0868057433844318</v>
       </c>
       <c r="AM20" s="1"/>
@@ -19631,11 +19826,11 @@
         <v>21.0343604981379</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.705559903419935</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4098841267248665</v>
       </c>
       <c r="AM21" s="1"/>
@@ -19736,11 +19931,11 @@
         <v>23.523778690997101</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21.604986332369567</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.3397474056531964</v>
       </c>
       <c r="AM22" s="1"/>
@@ -19968,11 +20163,11 @@
         <v>4.7019789308764697</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" ref="AJ26:AJ29" si="7">AVERAGE(D26:AG26)</f>
+        <f t="shared" ref="AJ26:AJ29" si="9">AVERAGE(D26:AG26)</f>
         <v>4.5254739306903184</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" ref="AK26:AK29" si="8">_xlfn.STDEV.S(D26:AG26)</f>
+        <f t="shared" ref="AK26:AK29" si="10">_xlfn.STDEV.S(D26:AG26)</f>
         <v>0.27929485629036604</v>
       </c>
       <c r="AM26" s="1"/>
@@ -20073,11 +20268,11 @@
         <v>10.3547078876868</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.176024119761809</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4707480257261969</v>
       </c>
       <c r="AM27" s="1"/>
@@ -20178,11 +20373,11 @@
         <v>16.296061630566999</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.103500429173518</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.9877142661548146</v>
       </c>
       <c r="AM28" s="1"/>
@@ -20283,11 +20478,11 @@
         <v>22.9477313006179</v>
       </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.931209199952711</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.9417978676099441</v>
       </c>
       <c r="AM29" s="1"/>
@@ -20522,11 +20717,11 @@
         <v>5.7620298196008397</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" ref="AJ34:AJ35" si="9">AVERAGE(D34:AG34)</f>
+        <f t="shared" ref="AJ34:AJ35" si="11">AVERAGE(D34:AG34)</f>
         <v>8.8766301865409858</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" ref="AK34:AK35" si="10">_xlfn.STDEV.S(D34:AG34)</f>
+        <f t="shared" ref="AK34:AK35" si="12">_xlfn.STDEV.S(D34:AG34)</f>
         <v>1.6194724152616058</v>
       </c>
       <c r="AM34" s="2"/>
@@ -20627,11 +20822,11 @@
         <v>10.1809569423576</v>
       </c>
       <c r="AJ35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.331645138576187</v>
       </c>
       <c r="AK35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.3233906144924785</v>
       </c>
       <c r="AM35" s="2" t="s">
@@ -20667,7 +20862,7 @@
         <v>8.9172553776680576</v>
       </c>
       <c r="AN37" s="2">
-        <f t="shared" ref="AN37:AN38" si="11">_xlfn.STDEV.S(D34:AG34,D39:AG39,D44:AG44,D49:AG49)</f>
+        <f t="shared" ref="AN37:AN38" si="13">_xlfn.STDEV.S(D34:AG34,D39:AG39,D44:AG44,D49:AG49)</f>
         <v>1.6808491427663073</v>
       </c>
       <c r="AO37" s="1"/>
@@ -20778,7 +20973,7 @@
         <v>11.406025632669715</v>
       </c>
       <c r="AN38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3534460406881386</v>
       </c>
       <c r="AO38" s="1"/>
@@ -20877,11 +21072,11 @@
         <v>8.41547527148564</v>
       </c>
       <c r="AJ39" s="2">
-        <f t="shared" ref="AJ39:AJ40" si="12">AVERAGE(D39:AG39)</f>
+        <f t="shared" ref="AJ39:AJ40" si="14">AVERAGE(D39:AG39)</f>
         <v>8.9469753413256274</v>
       </c>
       <c r="AK39" s="2">
-        <f t="shared" ref="AK39:AK40" si="13">_xlfn.STDEV.S(D39:AG39)</f>
+        <f t="shared" ref="AK39:AK40" si="15">_xlfn.STDEV.S(D39:AG39)</f>
         <v>1.6390767528064671</v>
       </c>
       <c r="AM39" s="1"/>
@@ -20982,11 +21177,11 @@
         <v>10.795841662680701</v>
       </c>
       <c r="AJ40" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>11.325274290982428</v>
       </c>
       <c r="AK40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.3225573128578474</v>
       </c>
       <c r="AM40" s="1" t="s">
@@ -21018,11 +21213,11 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AM42" s="2">
-        <f t="shared" ref="AM42:AM43" si="14">AM37-AM8</f>
+        <f t="shared" ref="AM42:AM43" si="16">AM37-AM8</f>
         <v>-10.087400451380093</v>
       </c>
       <c r="AN42" s="2">
-        <f t="shared" ref="AN42:AN43" si="15">AM42/AM8*100</f>
+        <f t="shared" ref="AN42:AN43" si="17">AM42/AM8*100</f>
         <v>-53.078574756201313</v>
       </c>
       <c r="AO42" s="1"/>
@@ -21129,11 +21324,11 @@
         <v>1.0941032311809034</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-10.455923797412177</v>
       </c>
       <c r="AN43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-47.827042281164999</v>
       </c>
       <c r="AO43" s="1"/>
@@ -21232,11 +21427,11 @@
         <v>9.1840975630317701</v>
       </c>
       <c r="AJ44" s="2">
-        <f t="shared" ref="AJ44:AJ45" si="16">AVERAGE(D44:AG44)</f>
+        <f t="shared" ref="AJ44:AJ45" si="18">AVERAGE(D44:AG44)</f>
         <v>9.0124044054688621</v>
       </c>
       <c r="AK44" s="2">
-        <f t="shared" ref="AK44:AK45" si="17">_xlfn.STDEV.S(D44:AG44)</f>
+        <f t="shared" ref="AK44:AK45" si="19">_xlfn.STDEV.S(D44:AG44)</f>
         <v>1.5719406350152552</v>
       </c>
       <c r="AM44" s="2"/>
@@ -21337,11 +21532,11 @@
         <v>10.4691392044931</v>
       </c>
       <c r="AJ45" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.733880274813028</v>
       </c>
       <c r="AK45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.1896304270539328</v>
       </c>
       <c r="AM45" s="1"/>
@@ -21569,7 +21764,7 @@
         <v>8.8330115773367677</v>
       </c>
       <c r="AK49" s="2">
-        <f t="shared" ref="AK49:AK50" si="18">_xlfn.STDEV.S(D49:AG49)</f>
+        <f t="shared" ref="AK49:AK50" si="20">_xlfn.STDEV.S(D49:AG49)</f>
         <v>1.9477406966301838</v>
       </c>
       <c r="AM49" s="2"/>
@@ -21670,11 +21865,11 @@
         <v>10.752028912502</v>
       </c>
       <c r="AJ50" s="2">
-        <f t="shared" ref="AJ50" si="19">AVERAGE(D50:AG50)</f>
+        <f t="shared" ref="AJ50" si="21">AVERAGE(D50:AG50)</f>
         <v>11.233302826307215</v>
       </c>
       <c r="AK50" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.6431759541241995</v>
       </c>
       <c r="AM50" s="2"/>
@@ -21913,7 +22108,7 @@
         <v>7.1501045384193453</v>
       </c>
       <c r="AK55" s="2">
-        <f t="shared" ref="AK55" si="20">_xlfn.STDEV.S(D55:AG55)</f>
+        <f t="shared" ref="AK55" si="22">_xlfn.STDEV.S(D55:AG55)</f>
         <v>1.7636175085536412</v>
       </c>
       <c r="AM55" s="2" t="s">
@@ -22157,7 +22352,7 @@
         <v>7.024846336184372</v>
       </c>
       <c r="AK59" s="2">
-        <f t="shared" ref="AK59" si="21">_xlfn.STDEV.S(D59:AG59)</f>
+        <f t="shared" ref="AK59" si="23">_xlfn.STDEV.S(D59:AG59)</f>
         <v>2.1724082357502033</v>
       </c>
       <c r="AM59" s="1" t="s">
@@ -22401,7 +22596,7 @@
         <v>7.5447497980591258</v>
       </c>
       <c r="AK63" s="2">
-        <f t="shared" ref="AK63" si="22">_xlfn.STDEV.S(D63:AG63)</f>
+        <f t="shared" ref="AK63" si="24">_xlfn.STDEV.S(D63:AG63)</f>
         <v>1.8502038905556013</v>
       </c>
       <c r="AM63" s="1"/>
@@ -22629,7 +22824,7 @@
         <v>7.0852812867113633</v>
       </c>
       <c r="AK67" s="2">
-        <f t="shared" ref="AK67" si="23">_xlfn.STDEV.S(D67:AG67)</f>
+        <f t="shared" ref="AK67" si="25">_xlfn.STDEV.S(D67:AG67)</f>
         <v>1.5649977618403521</v>
       </c>
       <c r="AM67" s="1"/>
@@ -22878,15 +23073,15 @@
         <v>18.271775061938015</v>
       </c>
       <c r="AK72" s="2">
-        <f t="shared" ref="AK72:AK73" si="24">_xlfn.STDEV.S(D72:AG72)</f>
+        <f t="shared" ref="AK72:AK73" si="26">_xlfn.STDEV.S(D72:AG72)</f>
         <v>5.4623247205889225</v>
       </c>
       <c r="AM72" s="2">
-        <f t="shared" ref="AM72:AM73" si="25">AVERAGE(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
+        <f t="shared" ref="AM72:AM73" si="27">AVERAGE(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
         <v>16.933661719058623</v>
       </c>
       <c r="AN72" s="2">
-        <f t="shared" ref="AN72:AN73" si="26">_xlfn.STDEV.S(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
+        <f t="shared" ref="AN72:AN73" si="28">_xlfn.STDEV.S(D72:AG72,D77:AG77,D82:AG82,D87:AG87)</f>
         <v>5.7368717678747094</v>
       </c>
       <c r="AO72" s="1"/>
@@ -22985,19 +23180,19 @@
         <v>17.841246806702099</v>
       </c>
       <c r="AJ73" s="2">
-        <f t="shared" ref="AJ73" si="27">AVERAGE(D73:AG73)</f>
+        <f t="shared" ref="AJ73" si="29">AVERAGE(D73:AG73)</f>
         <v>15.07385174626601</v>
       </c>
       <c r="AK73" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.0458897814896861</v>
       </c>
       <c r="AM73" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14.670259538247866</v>
       </c>
       <c r="AN73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7.6626260401485498</v>
       </c>
       <c r="AO73" s="1"/>
@@ -23138,7 +23333,7 @@
         <v>0.87051065600145439</v>
       </c>
       <c r="AP76" s="4">
-        <f t="shared" ref="AP76:AP77" si="28">AN71/AN7*100-100</f>
+        <f t="shared" ref="AP76:AP77" si="30">AN71/AN7*100-100</f>
         <v>67.870072403026029</v>
       </c>
       <c r="AQ76" s="1"/>
@@ -23239,23 +23434,23 @@
         <v>17.500691303879851</v>
       </c>
       <c r="AK77" s="2">
-        <f t="shared" ref="AK77:AK78" si="29">_xlfn.STDEV.S(D77:AG77)</f>
+        <f t="shared" ref="AK77:AK78" si="31">_xlfn.STDEV.S(D77:AG77)</f>
         <v>5.1225684858949361</v>
       </c>
       <c r="AM77" s="2">
-        <f t="shared" ref="AM77:AM78" si="30">AM72-AM8</f>
+        <f t="shared" ref="AM77:AM78" si="32">AM72-AM8</f>
         <v>-2.0709941099895275</v>
       </c>
       <c r="AN77" s="2">
-        <f t="shared" ref="AN77:AN78" si="31">AM77/AM8*100</f>
+        <f t="shared" ref="AN77:AN78" si="33">AM77/AM8*100</f>
         <v>-10.89729868627278</v>
       </c>
       <c r="AO77" s="2">
-        <f t="shared" ref="AO77:AO78" si="32">AN72-AN8</f>
+        <f t="shared" ref="AO77:AO78" si="34">AN72-AN8</f>
         <v>2.6937518257234179</v>
       </c>
       <c r="AP77" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>88.519410241158852</v>
       </c>
       <c r="AQ77" s="1"/>
@@ -23352,23 +23547,23 @@
         <v>0.91184491765764897</v>
       </c>
       <c r="AJ78" s="2">
-        <f t="shared" ref="AJ78" si="33">AVERAGE(D78:AG78)</f>
+        <f t="shared" ref="AJ78" si="35">AVERAGE(D78:AG78)</f>
         <v>15.222286485632873</v>
       </c>
       <c r="AK78" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.0716870079596514</v>
       </c>
       <c r="AM78" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-7.1916898918340273</v>
       </c>
       <c r="AN78" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-32.895922272779167</v>
       </c>
       <c r="AO78" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.9804729877969458</v>
       </c>
       <c r="AP78" s="4">
@@ -23596,7 +23791,7 @@
         <v>15.771778391701153</v>
       </c>
       <c r="AK82" s="2">
-        <f t="shared" ref="AK82:AK83" si="34">_xlfn.STDEV.S(D82:AG82)</f>
+        <f t="shared" ref="AK82:AK83" si="36">_xlfn.STDEV.S(D82:AG82)</f>
         <v>6.3586039222991655</v>
       </c>
       <c r="AM82" s="1"/>
@@ -23697,11 +23892,11 @@
         <v>0.24984850353169399</v>
       </c>
       <c r="AJ83" s="2">
-        <f t="shared" ref="AJ83" si="35">AVERAGE(D83:AG83)</f>
+        <f t="shared" ref="AJ83" si="37">AVERAGE(D83:AG83)</f>
         <v>13.409694836069527</v>
       </c>
       <c r="AK83" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7.5118171173228374</v>
       </c>
       <c r="AM83" s="1"/>
@@ -23929,7 +24124,7 @@
         <v>16.190402118715486</v>
       </c>
       <c r="AK87" s="2">
-        <f t="shared" ref="AK87:AK88" si="36">_xlfn.STDEV.S(D87:AG87)</f>
+        <f t="shared" ref="AK87:AK88" si="38">_xlfn.STDEV.S(D87:AG87)</f>
         <v>5.8642133478501615</v>
       </c>
       <c r="AM87" s="1"/>
@@ -24030,11 +24225,11 @@
         <v>12.9848525646968</v>
       </c>
       <c r="AJ88" s="2">
-        <f t="shared" ref="AJ88" si="37">AVERAGE(D88:AG88)</f>
+        <f t="shared" ref="AJ88" si="39">AVERAGE(D88:AG88)</f>
         <v>14.975205085023067</v>
       </c>
       <c r="AK88" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.2152025052360482</v>
       </c>
       <c r="AM88" s="1"/>

--- a/Proyecto/Casos de estudio 1-4.xlsx
+++ b/Proyecto/Casos de estudio 1-4.xlsx
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AP88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11:AN15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19276,7 +19276,7 @@
         <v>10.126514001709587</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" ref="AN14:AN15" si="6">AVERAGE(AJ20,AJ27)</f>
+        <f t="shared" ref="AN14" si="6">AVERAGE(AJ20,AJ27)</f>
         <v>10.063961470180555</v>
       </c>
       <c r="AO14" s="1"/>
